--- a/GIT_Command.xlsx
+++ b/GIT_Command.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Command</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>push the changes to the center repository in github</t>
+  </si>
+  <si>
+    <t>$ git commit -am "comments"</t>
+  </si>
+  <si>
+    <t>directly commit changes from working area to repository. It skip staging area.</t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -536,6 +542,14 @@
         <v>23</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GIT_Command.xlsx
+++ b/GIT_Command.xlsx
@@ -437,7 +437,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/GIT_Command.xlsx
+++ b/GIT_Command.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Command</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>directly commit changes from working area to repository. It skip staging area.</t>
+  </si>
+  <si>
+    <t>$ git checkout -- index.html</t>
+  </si>
+  <si>
+    <t>get the working copy of file from repository to your working area. For example if you have change the file in you working area and you want to overwrite it from previous version from repository.</t>
   </si>
 </sst>
 </file>
@@ -434,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -550,6 +556,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/GIT_Command.xlsx
+++ b/GIT_Command.xlsx
@@ -443,7 +443,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="A17:B17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
